--- a/Hidden Power Type Checker.xlsx
+++ b/Hidden Power Type Checker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmill\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A11E1F-7D29-4D1E-828A-FBDA6EA0908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47E91C-EF4A-45D0-9F9E-5C4B92D173BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hidden Power Checker" sheetId="1" r:id="rId1"/>
@@ -1883,7 +1883,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1930,16 +1930,46 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1947,11 +1977,146 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1961,8 +2126,50 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2198,13 +2405,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2230,13 +2437,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1"/>
@@ -2264,9 +2471,9 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="e">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="23" t="e">
         <f t="array" ref="C3">INDEX('Raw Types'!B2:E172,MATCH(A3,'Raw Types'!A2:A172,0),MATCH(B3,'Raw Types'!B1:E1,0))</f>
         <v>#N/A</v>
       </c>
@@ -2298,10 +2505,10 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="e">
-        <f t="array" ref="C4">INDEX('Raw Types'!B2:E172,MATCH(A4,'Raw Types'!A2:A172,0),MATCH(B4,'Raw Types'!B1:E1,0))</f>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="24" t="e">
+        <f>INDEX('Raw Types'!B2:E172,MATCH(A4,'Raw Types'!A2:A172,0),MATCH(B4,'Raw Types'!B1:E1,0))</f>
         <v>#N/A</v>
       </c>
       <c r="D4" s="1" t="e" cm="1">
@@ -2332,9 +2539,9 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="e">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="24" t="e">
         <f t="array" ref="C5">INDEX('Raw Types'!B2:E172,MATCH(A5,'Raw Types'!A2:A172,0),MATCH(B5,'Raw Types'!B1:E1,0))</f>
         <v>#N/A</v>
       </c>
@@ -2366,9 +2573,9 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="e">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="24" t="e">
         <f t="array" ref="C6">INDEX('Raw Types'!B2:E172,MATCH(A6,'Raw Types'!A2:A172,0),MATCH(B6,'Raw Types'!B1:E1,0))</f>
         <v>#N/A</v>
       </c>
@@ -2399,10 +2606,10 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="e">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="25" t="e">
         <f t="array" ref="C7">INDEX('Raw Types'!B2:E172,MATCH(A7,'Raw Types'!A2:A172,0),MATCH(B7,'Raw Types'!B1:E1,0))</f>
         <v>#N/A</v>
       </c>
@@ -2492,10 +2699,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="str" cm="1">
+      <c r="B10" s="27" t="str" cm="1">
         <f t="array" ref="B10:B27">_xlfn._xlws.FILTER(D14:D31,E14:E31=MAX(E14:E31))</f>
         <v>Normal</v>
       </c>
@@ -2528,7 +2735,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="28" t="str">
         <v>Fire</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2559,7 +2766,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="29" t="str">
         <v>Water</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2590,7 +2797,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="29" t="str">
         <v>Electric</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2623,7 +2830,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="29" t="str">
         <v>Grass</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2659,7 +2866,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="29" t="str">
         <v>Ice</v>
       </c>
       <c r="C15" s="2"/>
@@ -2693,7 +2900,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="29" t="str">
         <v>Fighting</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2729,7 +2936,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="29" t="str">
         <v>Poison</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2765,7 +2972,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="29" t="str">
         <v>Ground</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2801,7 +3008,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="29" t="str">
         <v>Flying</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2837,7 +3044,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="str">
+      <c r="B20" s="29" t="str">
         <v>Psychic</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2870,7 +3077,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="str">
+      <c r="B21" s="29" t="str">
         <v>Bug</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2903,7 +3110,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="str">
+      <c r="B22" s="29" t="str">
         <v>Rock</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2936,7 +3143,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="str">
+      <c r="B23" s="29" t="str">
         <v>Ghost</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2969,7 +3176,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="str">
+      <c r="B24" s="29" t="str">
         <v>Dragon</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3002,7 +3209,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="29" t="str">
         <v>Dark</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3035,7 +3242,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="str">
+      <c r="B26" s="30" t="str">
         <v>Steel</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3068,7 +3275,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="str">
+      <c r="B27" s="30" t="str">
         <v>Fairy</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -30351,6 +30558,10 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="/C2eyw0fFVn+38GxwTcATKxby393UYuUUs8hmVwIofFHAJdUZO9lbJyT5fmUYdg9o+vfRHJtgyoRzXqhnl4H9g==" saltValue="WAG2j+XJmVBj0gPwS6BEow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A1:C2" name="Range1"/>
+  </protectedRanges>
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
@@ -30387,8 +30598,8 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -60097,6 +60308,7 @@
       <c r="Z999" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="fMTcYZlRTpY8GasDiw1Xvo6hY5aujBGB9D1AJBsvjCa8AlZzvQJWyLLT9ZQeFkoDe34ah52opBgjv9rDQPEyCA==" saltValue="Gizgohz22IypRroQ1pYtBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>

--- a/Hidden Power Type Checker.xlsx
+++ b/Hidden Power Type Checker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmill\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA47E91C-EF4A-45D0-9F9E-5C4B92D173BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0840C4-75A2-4F33-8BA4-9354A737169A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="601">
   <si>
     <t>Hidden Power Type Checker</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Water Ground Rock</t>
-  </si>
-  <si>
-    <t>https://pokemondb.net/type/dual</t>
   </si>
   <si>
     <t>Fire Water Ice Steel</t>
@@ -2116,7 +2113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2144,12 +2141,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2163,13 +2158,11 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2390,9 +2383,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2408,10 +2399,10 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2437,13 +2428,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1"/>
@@ -2473,7 +2464,7 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="23" t="e">
+      <c r="C3" s="21" t="e">
         <f t="array" ref="C3">INDEX('Raw Types'!B2:E172,MATCH(A3,'Raw Types'!A2:A172,0),MATCH(B3,'Raw Types'!B1:E1,0))</f>
         <v>#N/A</v>
       </c>
@@ -2505,9 +2496,9 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="24" t="e">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16" t="e">
         <f>INDEX('Raw Types'!B2:E172,MATCH(A4,'Raw Types'!A2:A172,0),MATCH(B4,'Raw Types'!B1:E1,0))</f>
         <v>#N/A</v>
       </c>
@@ -2541,7 +2532,7 @@
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="24" t="e">
+      <c r="C5" s="16" t="e">
         <f t="array" ref="C5">INDEX('Raw Types'!B2:E172,MATCH(A5,'Raw Types'!A2:A172,0),MATCH(B5,'Raw Types'!B1:E1,0))</f>
         <v>#N/A</v>
       </c>
@@ -2575,7 +2566,7 @@
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="24" t="e">
+      <c r="C6" s="16" t="e">
         <f t="array" ref="C6">INDEX('Raw Types'!B2:E172,MATCH(A6,'Raw Types'!A2:A172,0),MATCH(B6,'Raw Types'!B1:E1,0))</f>
         <v>#N/A</v>
       </c>
@@ -2607,9 +2598,9 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="25" t="e">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="22" t="e">
         <f t="array" ref="C7">INDEX('Raw Types'!B2:E172,MATCH(A7,'Raw Types'!A2:A172,0),MATCH(B7,'Raw Types'!B1:E1,0))</f>
         <v>#N/A</v>
       </c>
@@ -2699,10 +2690,10 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="27" t="str" cm="1">
+      <c r="B10" s="24" t="str" cm="1">
         <f t="array" ref="B10:B27">_xlfn._xlws.FILTER(D14:D31,E14:E31=MAX(E14:E31))</f>
         <v>Normal</v>
       </c>
@@ -2735,7 +2726,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="28" t="str">
+      <c r="B11" s="1" t="str">
         <v>Fire</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -2766,7 +2757,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="29" t="str">
+      <c r="B12" s="3" t="str">
         <v>Water</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2797,7 +2788,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="str">
+      <c r="B13" s="3" t="str">
         <v>Electric</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -2830,7 +2821,7 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="str">
+      <c r="B14" s="3" t="str">
         <v>Grass</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2866,7 +2857,7 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="str">
+      <c r="B15" s="3" t="str">
         <v>Ice</v>
       </c>
       <c r="C15" s="2"/>
@@ -2900,7 +2891,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="str">
+      <c r="B16" s="3" t="str">
         <v>Fighting</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2936,7 +2927,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="str">
+      <c r="B17" s="3" t="str">
         <v>Poison</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2972,7 +2963,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="str">
+      <c r="B18" s="3" t="str">
         <v>Ground</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3008,7 +2999,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="str">
+      <c r="B19" s="3" t="str">
         <v>Flying</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -3044,7 +3035,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="str">
+      <c r="B20" s="3" t="str">
         <v>Psychic</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3077,7 +3068,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="str">
+      <c r="B21" s="3" t="str">
         <v>Bug</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3110,7 +3101,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="str">
+      <c r="B22" s="3" t="str">
         <v>Rock</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -3143,7 +3134,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="str">
+      <c r="B23" s="3" t="str">
         <v>Ghost</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3176,7 +3167,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="str">
+      <c r="B24" s="3" t="str">
         <v>Dragon</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3209,7 +3200,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="29" t="str">
+      <c r="B25" s="3" t="str">
         <v>Dark</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3242,7 +3233,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="30" t="str">
+      <c r="B26" t="str">
         <v>Steel</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3275,7 +3266,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="30" t="str">
+      <c r="B27" t="str">
         <v>Fairy</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -30598,8 +30589,8 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30704,9 +30695,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="G3" s="6"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -30732,13 +30721,13 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -30770,10 +30759,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>25</v>
@@ -30808,13 +30797,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -30849,10 +30838,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -30884,13 +30873,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -30922,13 +30911,13 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -30960,13 +30949,13 @@
         <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -30998,13 +30987,13 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>25</v>
@@ -31036,13 +31025,13 @@
         <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -31074,13 +31063,13 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -31112,13 +31101,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -31150,16 +31139,16 @@
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -31188,13 +31177,13 @@
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -31226,13 +31215,13 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>27</v>
@@ -31264,13 +31253,13 @@
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>24</v>
@@ -31302,13 +31291,13 @@
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
@@ -31337,16 +31326,16 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>30</v>
@@ -31375,16 +31364,16 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>30</v>
@@ -31413,16 +31402,16 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>30</v>
@@ -31451,16 +31440,16 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>30</v>
@@ -31489,16 +31478,16 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>30</v>
@@ -31527,16 +31516,16 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>30</v>
@@ -31565,16 +31554,16 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>30</v>
@@ -31603,19 +31592,19 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -31641,19 +31630,19 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -31679,16 +31668,16 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>30</v>
@@ -31717,16 +31706,16 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>30</v>
@@ -31755,16 +31744,16 @@
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>30</v>
@@ -31793,19 +31782,19 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -31831,16 +31820,16 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>30</v>
@@ -31869,19 +31858,19 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -31907,19 +31896,19 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -31945,19 +31934,19 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -31983,16 +31972,16 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -32021,13 +32010,13 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>42</v>
@@ -32059,16 +32048,16 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -32097,16 +32086,16 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -32135,16 +32124,16 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -32173,16 +32162,16 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -32211,16 +32200,16 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>17</v>
@@ -32249,16 +32238,16 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>25</v>
@@ -32287,16 +32276,16 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -32325,16 +32314,16 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -32363,16 +32352,16 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -32401,19 +32390,19 @@
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -32439,16 +32428,16 @@
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E49" s="4">
         <v>0</v>
@@ -32477,16 +32466,16 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>27</v>
@@ -32515,16 +32504,16 @@
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>24</v>
@@ -32553,16 +32542,16 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>31</v>
@@ -32591,16 +32580,16 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="1">
         <v>0</v>
@@ -32629,16 +32618,16 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="E54" s="1">
         <v>0</v>
@@ -32667,16 +32656,16 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="E55" s="1">
         <v>0</v>
@@ -32705,16 +32694,16 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E56" s="1">
         <v>0</v>
@@ -32743,16 +32732,16 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="E57" s="1">
         <v>0</v>
@@ -32781,13 +32770,13 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>19</v>
@@ -32819,16 +32808,16 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>25</v>
@@ -32857,16 +32846,16 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="E60" s="1">
         <v>0</v>
@@ -32895,16 +32884,16 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E61" s="1">
         <v>0</v>
@@ -32933,16 +32922,16 @@
     </row>
     <row r="62" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="E62" s="1">
         <v>0</v>
@@ -32971,19 +32960,19 @@
     </row>
     <row r="63" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -33009,16 +32998,16 @@
     </row>
     <row r="64" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E64" s="1">
         <v>0</v>
@@ -33047,16 +33036,16 @@
     </row>
     <row r="65" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>27</v>
@@ -33085,16 +33074,16 @@
     </row>
     <row r="66" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>24</v>
@@ -33123,16 +33112,16 @@
     </row>
     <row r="67" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>31</v>
@@ -33161,16 +33150,16 @@
     </row>
     <row r="68" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="E68" s="1">
         <v>0</v>
@@ -33199,16 +33188,16 @@
     </row>
     <row r="69" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="E69" s="1">
         <v>0</v>
@@ -33237,16 +33226,16 @@
     </row>
     <row r="70" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="E70" s="1">
         <v>0</v>
@@ -33275,16 +33264,16 @@
     </row>
     <row r="71" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E71" s="1">
         <v>0</v>
@@ -33313,16 +33302,16 @@
     </row>
     <row r="72" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>17</v>
@@ -33351,16 +33340,16 @@
     </row>
     <row r="73" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>25</v>
@@ -33389,16 +33378,16 @@
     </row>
     <row r="74" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="E74" s="1">
         <v>0</v>
@@ -33427,16 +33416,16 @@
     </row>
     <row r="75" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E75" s="1">
         <v>0</v>
@@ -33465,16 +33454,16 @@
     </row>
     <row r="76" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E76" s="1">
         <v>0</v>
@@ -33503,19 +33492,19 @@
     </row>
     <row r="77" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -33541,16 +33530,16 @@
     </row>
     <row r="78" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="E78" s="1">
         <v>0</v>
@@ -33579,16 +33568,16 @@
     </row>
     <row r="79" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>27</v>
@@ -33617,16 +33606,16 @@
     </row>
     <row r="80" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>24</v>
@@ -33655,16 +33644,16 @@
     </row>
     <row r="81" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>31</v>
@@ -33693,16 +33682,16 @@
     </row>
     <row r="82" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="E82" s="1">
         <v>0</v>
@@ -33731,16 +33720,16 @@
     </row>
     <row r="83" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="E83" s="1">
         <v>0</v>
@@ -33769,16 +33758,16 @@
     </row>
     <row r="84" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="E84" s="1">
         <v>0</v>
@@ -33807,16 +33796,16 @@
     </row>
     <row r="85" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>17</v>
@@ -33845,16 +33834,16 @@
     </row>
     <row r="86" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>25</v>
@@ -33883,16 +33872,16 @@
     </row>
     <row r="87" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="E87" s="1">
         <v>0</v>
@@ -33921,16 +33910,16 @@
     </row>
     <row r="88" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="E88" s="1">
         <v>0</v>
@@ -33959,16 +33948,16 @@
     </row>
     <row r="89" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="E89" s="1">
         <v>0</v>
@@ -33997,19 +33986,19 @@
     </row>
     <row r="90" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -34035,16 +34024,16 @@
     </row>
     <row r="91" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="E91" s="1">
         <v>0</v>
@@ -34073,16 +34062,16 @@
     </row>
     <row r="92" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>27</v>
@@ -34111,16 +34100,16 @@
     </row>
     <row r="93" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>24</v>
@@ -34149,16 +34138,16 @@
     </row>
     <row r="94" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>31</v>
@@ -34187,16 +34176,16 @@
     </row>
     <row r="95" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E95" s="1">
         <v>0</v>
@@ -34225,16 +34214,16 @@
     </row>
     <row r="96" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="E96" s="1">
         <v>0</v>
@@ -34263,16 +34252,16 @@
     </row>
     <row r="97" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>17</v>
@@ -34301,16 +34290,16 @@
     </row>
     <row r="98" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>25</v>
@@ -34339,16 +34328,16 @@
     </row>
     <row r="99" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="E99" s="1">
         <v>0</v>
@@ -34377,16 +34366,16 @@
     </row>
     <row r="100" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="E100" s="1">
         <v>0</v>
@@ -34415,16 +34404,16 @@
     </row>
     <row r="101" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="E101" s="1">
         <v>0</v>
@@ -34453,19 +34442,19 @@
     </row>
     <row r="102" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -34491,16 +34480,16 @@
     </row>
     <row r="103" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
@@ -34529,16 +34518,16 @@
     </row>
     <row r="104" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>27</v>
@@ -34567,16 +34556,16 @@
     </row>
     <row r="105" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>24</v>
@@ -34605,16 +34594,16 @@
     </row>
     <row r="106" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>385</v>
-      </c>
       <c r="D106" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>31</v>
@@ -34643,16 +34632,16 @@
     </row>
     <row r="107" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
@@ -34681,16 +34670,16 @@
     </row>
     <row r="108" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>17</v>
@@ -34719,16 +34708,16 @@
     </row>
     <row r="109" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>25</v>
@@ -34757,16 +34746,16 @@
     </row>
     <row r="110" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="E110" s="1">
         <v>0</v>
@@ -34795,16 +34784,16 @@
     </row>
     <row r="111" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="E111" s="1">
         <v>0</v>
@@ -34833,16 +34822,16 @@
     </row>
     <row r="112" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="E112" s="1">
         <v>0</v>
@@ -34871,19 +34860,19 @@
     </row>
     <row r="113" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>410</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -34909,16 +34898,16 @@
     </row>
     <row r="114" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="E114" s="1">
         <v>0</v>
@@ -34947,16 +34936,16 @@
     </row>
     <row r="115" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>27</v>
@@ -34985,16 +34974,16 @@
     </row>
     <row r="116" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="D116" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>24</v>
@@ -35023,16 +35012,16 @@
     </row>
     <row r="117" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>31</v>
@@ -35061,16 +35050,16 @@
     </row>
     <row r="118" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>17</v>
@@ -35099,16 +35088,16 @@
     </row>
     <row r="119" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>25</v>
@@ -35137,16 +35126,16 @@
     </row>
     <row r="120" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>434</v>
-      </c>
       <c r="D120" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E120" s="1">
         <v>0</v>
@@ -35175,16 +35164,16 @@
     </row>
     <row r="121" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
@@ -35213,16 +35202,16 @@
     </row>
     <row r="122" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="E122" s="1">
         <v>0</v>
@@ -35251,19 +35240,19 @@
     </row>
     <row r="123" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -35289,16 +35278,16 @@
     </row>
     <row r="124" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="E124" s="1">
         <v>0</v>
@@ -35327,13 +35316,13 @@
     </row>
     <row r="125" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>25</v>
@@ -35365,16 +35354,16 @@
     </row>
     <row r="126" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="D126" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>24</v>
@@ -35403,16 +35392,16 @@
     </row>
     <row r="127" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>31</v>
@@ -35441,19 +35430,19 @@
     </row>
     <row r="128" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="D128" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -35479,16 +35468,16 @@
     </row>
     <row r="129" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>460</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>17</v>
@@ -35517,16 +35506,16 @@
     </row>
     <row r="130" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>17</v>
@@ -35555,16 +35544,16 @@
     </row>
     <row r="131" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>17</v>
@@ -35593,19 +35582,19 @@
     </row>
     <row r="132" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -35631,16 +35620,16 @@
     </row>
     <row r="133" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="D133" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>17</v>
@@ -35669,19 +35658,19 @@
     </row>
     <row r="134" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -35707,19 +35696,19 @@
     </row>
     <row r="135" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>481</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
@@ -35745,19 +35734,19 @@
     </row>
     <row r="136" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -35783,16 +35772,16 @@
     </row>
     <row r="137" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>25</v>
@@ -35821,16 +35810,16 @@
     </row>
     <row r="138" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>25</v>
@@ -35859,16 +35848,16 @@
     </row>
     <row r="139" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>25</v>
@@ -35897,19 +35886,19 @@
     </row>
     <row r="140" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E140" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -35935,16 +35924,16 @@
     </row>
     <row r="141" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>25</v>
@@ -35973,19 +35962,19 @@
     </row>
     <row r="142" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="E142" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -36011,19 +36000,19 @@
     </row>
     <row r="143" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>510</v>
-      </c>
       <c r="D143" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -36049,19 +36038,19 @@
     </row>
     <row r="144" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="E144" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -36087,16 +36076,16 @@
     </row>
     <row r="145" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="E145" s="1">
         <v>0</v>
@@ -36125,16 +36114,16 @@
     </row>
     <row r="146" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="E146" s="1">
         <v>0</v>
@@ -36163,19 +36152,19 @@
     </row>
     <row r="147" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D147" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -36201,16 +36190,16 @@
     </row>
     <row r="148" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="E148" s="1">
         <v>0</v>
@@ -36239,16 +36228,16 @@
     </row>
     <row r="149" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>27</v>
@@ -36277,16 +36266,16 @@
     </row>
     <row r="150" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>24</v>
@@ -36315,16 +36304,16 @@
     </row>
     <row r="151" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>31</v>
@@ -36353,16 +36342,16 @@
     </row>
     <row r="152" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="E152" s="1">
         <v>0</v>
@@ -36391,19 +36380,19 @@
     </row>
     <row r="153" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="E153" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -36429,16 +36418,16 @@
     </row>
     <row r="154" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="E154" s="1">
         <v>0</v>
@@ -36467,16 +36456,16 @@
     </row>
     <row r="155" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>27</v>
@@ -36505,13 +36494,13 @@
     </row>
     <row r="156" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
@@ -36543,16 +36532,16 @@
     </row>
     <row r="157" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>31</v>
@@ -36581,19 +36570,19 @@
     </row>
     <row r="158" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>558</v>
-      </c>
       <c r="E158" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -36619,16 +36608,16 @@
     </row>
     <row r="159" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="E159" s="1">
         <v>0</v>
@@ -36657,16 +36646,16 @@
     </row>
     <row r="160" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>27</v>
@@ -36695,16 +36684,16 @@
     </row>
     <row r="161" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="D161" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>24</v>
@@ -36733,16 +36722,16 @@
     </row>
     <row r="162" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>571</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>572</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>31</v>
@@ -36771,19 +36760,19 @@
     </row>
     <row r="163" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="D163" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="E163" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -36809,19 +36798,19 @@
     </row>
     <row r="164" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -36847,19 +36836,19 @@
     </row>
     <row r="165" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -36885,19 +36874,19 @@
     </row>
     <row r="166" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -36923,16 +36912,16 @@
     </row>
     <row r="167" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>27</v>
@@ -36961,16 +36950,16 @@
     </row>
     <row r="168" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="D168" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>24</v>
@@ -36999,16 +36988,16 @@
     </row>
     <row r="169" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>31</v>
@@ -37037,19 +37026,19 @@
     </row>
     <row r="170" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>595</v>
-      </c>
       <c r="D170" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -37075,19 +37064,19 @@
     </row>
     <row r="171" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="E171" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -37113,19 +37102,19 @@
     </row>
     <row r="172" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="D172" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -60308,10 +60297,7 @@
       <c r="Z999" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fMTcYZlRTpY8GasDiw1Xvo6hY5aujBGB9D1AJBsvjCa8AlZzvQJWyLLT9ZQeFkoDe34ah52opBgjv9rDQPEyCA==" saltValue="Gizgohz22IypRroQ1pYtBA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
+  <sheetProtection algorithmName="SHA-512" hashValue="ryQGnxhcsfKqQ3KbhpmKR+0081cs/41PvQ7agaVGZAnecW77mjZzmVKKuBnAt5tILkgPz3Er+AVbgHokxOfS4Q==" saltValue="bKD064mX/t3Szfkgb9WujQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>